--- a/medicine/Psychotrope/Privatbrauerei_Moritz_Fiege/Privatbrauerei_Moritz_Fiege.xlsx
+++ b/medicine/Psychotrope/Privatbrauerei_Moritz_Fiege/Privatbrauerei_Moritz_Fiege.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Privatbrauerei Moritz Fiege GmbH &amp; Co KG est une brasserie à Bochum, dans le Land de Rhénanie-du-Nord-Westphalie.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'histoire de la brasserie privée Moritz Fiege commence en 1736. À cette époque, la famille Fiege exploite une taverne dans le centre de Bochum. La bière est brassée seulement pour la taverne.
 En 1876, Moritz Fiege reçoit les droits de brassage de la ville de Bochum. Il cède son fils Johann qui, en 1878, crée l'entreprise brassicole à l'emplacement actuel de la Scharnhorststraße (aujourd'hui la Moritz-Fiege-Straße) à Bochum, établissant ainsi les bases de la société actuelle.
@@ -547,7 +561,9 @@
           <t>Productions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Moritz Fiege Pils
 Moritz Fiege Charakter Pilsbock
